--- a/Data/Ingenieria_Civil_Metalurgia.xlsx
+++ b/Data/Ingenieria_Civil_Metalurgia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A00C6-4CC9-445F-ABF2-FE86631D6E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7859FA62-E862-4900-B1D8-B426B9E36761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="72">
   <si>
     <t>courses</t>
   </si>
@@ -48,6 +48,201 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>c10125</t>
+  </si>
+  <si>
+    <t>c10129</t>
+  </si>
+  <si>
+    <t>c10116</t>
+  </si>
+  <si>
+    <t>c10127</t>
+  </si>
+  <si>
+    <t>c10122</t>
+  </si>
+  <si>
+    <t>c10128</t>
+  </si>
+  <si>
+    <t>c10126</t>
+  </si>
+  <si>
+    <t>c10130</t>
+  </si>
+  <si>
+    <t>c10124</t>
+  </si>
+  <si>
+    <t>c10115</t>
+  </si>
+  <si>
+    <t>c10131</t>
+  </si>
+  <si>
+    <t>c10132</t>
+  </si>
+  <si>
+    <t>c10133</t>
+  </si>
+  <si>
+    <t>c16201</t>
+  </si>
+  <si>
+    <t>c16287</t>
+  </si>
+  <si>
+    <t>c16204</t>
+  </si>
+  <si>
+    <t>c16205</t>
+  </si>
+  <si>
+    <t>c16207</t>
+  </si>
+  <si>
+    <t>c16208</t>
+  </si>
+  <si>
+    <t>c16288</t>
+  </si>
+  <si>
+    <t>c16289</t>
+  </si>
+  <si>
+    <t>c16290</t>
+  </si>
+  <si>
+    <t>c16214</t>
+  </si>
+  <si>
+    <t>c16215</t>
+  </si>
+  <si>
+    <t>c16291</t>
+  </si>
+  <si>
+    <t>c16217</t>
+  </si>
+  <si>
+    <t>c16218</t>
+  </si>
+  <si>
+    <t>c16219</t>
+  </si>
+  <si>
+    <t>c16220</t>
+  </si>
+  <si>
+    <t>c16292</t>
+  </si>
+  <si>
+    <t>c16222</t>
+  </si>
+  <si>
+    <t>c16223</t>
+  </si>
+  <si>
+    <t>c16224</t>
+  </si>
+  <si>
+    <t>c16293</t>
+  </si>
+  <si>
+    <t>c16226</t>
+  </si>
+  <si>
+    <t>c16227</t>
+  </si>
+  <si>
+    <t>c16228</t>
+  </si>
+  <si>
+    <t>c16294</t>
+  </si>
+  <si>
+    <t>c16295</t>
+  </si>
+  <si>
+    <t>c16296</t>
+  </si>
+  <si>
+    <t>c16232</t>
+  </si>
+  <si>
+    <t>c16233</t>
+  </si>
+  <si>
+    <t>c16297</t>
+  </si>
+  <si>
+    <t>c16235</t>
+  </si>
+  <si>
+    <t>c16236</t>
+  </si>
+  <si>
+    <t>c16237</t>
+  </si>
+  <si>
+    <t>c16238</t>
+  </si>
+  <si>
+    <t>c16239</t>
+  </si>
+  <si>
+    <t>c16298</t>
+  </si>
+  <si>
+    <t>c16241</t>
+  </si>
+  <si>
+    <t>c16242</t>
+  </si>
+  <si>
+    <t>c16243</t>
+  </si>
+  <si>
+    <t>c16244</t>
+  </si>
+  <si>
+    <t>c16299</t>
+  </si>
+  <si>
+    <t>c10101</t>
+  </si>
+  <si>
+    <t>c10107</t>
+  </si>
+  <si>
+    <t>c10102</t>
+  </si>
+  <si>
+    <t>c10108</t>
+  </si>
+  <si>
+    <t>c10103</t>
+  </si>
+  <si>
+    <t>c10109</t>
+  </si>
+  <si>
+    <t>c10104</t>
+  </si>
+  <si>
+    <t>c10110</t>
+  </si>
+  <si>
+    <t>c16216</t>
+  </si>
+  <si>
+    <t>c16210</t>
+  </si>
+  <si>
+    <t>c10111</t>
   </si>
 </sst>
 </file>
@@ -370,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,8 +586,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>10101</v>
+      <c r="A2" t="s">
+        <v>61</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -402,8 +597,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>10102</v>
+      <c r="A3" t="s">
+        <v>63</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -413,8 +608,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>10103</v>
+      <c r="A4" t="s">
+        <v>65</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -424,8 +619,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10111</v>
+      <c r="A5" t="s">
+        <v>71</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -435,8 +630,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>10125</v>
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -446,8 +641,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>10126</v>
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -457,8 +652,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10107</v>
+      <c r="A8" t="s">
+        <v>62</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -468,8 +663,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>10108</v>
+      <c r="A9" t="s">
+        <v>64</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -479,8 +674,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10109</v>
+      <c r="A10" t="s">
+        <v>66</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -490,8 +685,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10110</v>
+      <c r="A11" t="s">
+        <v>68</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -501,8 +696,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10104</v>
+      <c r="A12" t="s">
+        <v>67</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -512,8 +707,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>16201</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -523,8 +718,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>10129</v>
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -534,8 +729,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10116</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -545,8 +740,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>10127</v>
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -556,8 +751,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>10122</v>
+      <c r="A17" t="s">
+        <v>11</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -567,8 +762,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>10128</v>
+      <c r="A18" t="s">
+        <v>12</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -578,8 +773,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>10130</v>
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -589,8 +784,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>16287</v>
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -600,8 +795,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>16204</v>
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -611,8 +806,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>16205</v>
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -622,8 +817,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>10124</v>
+      <c r="A23" t="s">
+        <v>15</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -633,8 +828,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>10115</v>
+      <c r="A24" t="s">
+        <v>16</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -644,8 +839,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>10131</v>
+      <c r="A25" t="s">
+        <v>17</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -655,8 +850,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>16207</v>
+      <c r="A26" t="s">
+        <v>24</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -666,8 +861,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>16208</v>
+      <c r="A27" t="s">
+        <v>25</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -677,8 +872,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>16216</v>
+      <c r="A28" t="s">
+        <v>69</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -688,8 +883,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>16210</v>
+      <c r="A29" t="s">
+        <v>70</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -699,8 +894,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>16288</v>
+      <c r="A30" t="s">
+        <v>26</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -710,8 +905,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>10132</v>
+      <c r="A31" t="s">
+        <v>18</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -721,8 +916,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>16289</v>
+      <c r="A32" t="s">
+        <v>27</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -732,8 +927,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>16290</v>
+      <c r="A33" t="s">
+        <v>28</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -743,8 +938,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>16214</v>
+      <c r="A34" t="s">
+        <v>29</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -754,8 +949,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>16215</v>
+      <c r="A35" t="s">
+        <v>30</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -765,8 +960,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>16291</v>
+      <c r="A36" t="s">
+        <v>31</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -776,8 +971,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>10133</v>
+      <c r="A37" t="s">
+        <v>19</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -787,8 +982,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>16217</v>
+      <c r="A38" t="s">
+        <v>32</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -798,8 +993,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>16218</v>
+      <c r="A39" t="s">
+        <v>33</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -809,8 +1004,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>16219</v>
+      <c r="A40" t="s">
+        <v>34</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -820,8 +1015,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>16220</v>
+      <c r="A41" t="s">
+        <v>35</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -831,8 +1026,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>16292</v>
+      <c r="A42" t="s">
+        <v>36</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -842,8 +1037,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>16222</v>
+      <c r="A43" t="s">
+        <v>37</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -853,8 +1048,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>16223</v>
+      <c r="A44" t="s">
+        <v>38</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -864,8 +1059,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>16224</v>
+      <c r="A45" t="s">
+        <v>39</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -875,8 +1070,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>16293</v>
+      <c r="A46" t="s">
+        <v>40</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -886,8 +1081,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>16226</v>
+      <c r="A47" t="s">
+        <v>41</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -897,8 +1092,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>16227</v>
+      <c r="A48" t="s">
+        <v>42</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -908,8 +1103,8 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>16228</v>
+      <c r="A49" t="s">
+        <v>43</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -919,8 +1114,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>16294</v>
+      <c r="A50" t="s">
+        <v>44</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -930,8 +1125,8 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>16295</v>
+      <c r="A51" t="s">
+        <v>45</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -941,8 +1136,8 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>16296</v>
+      <c r="A52" t="s">
+        <v>46</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -952,8 +1147,8 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>16232</v>
+      <c r="A53" t="s">
+        <v>47</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -963,8 +1158,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>16233</v>
+      <c r="A54" t="s">
+        <v>48</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -974,8 +1169,8 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>16297</v>
+      <c r="A55" t="s">
+        <v>49</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -985,8 +1180,8 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>16235</v>
+      <c r="A56" t="s">
+        <v>50</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -996,8 +1191,8 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>16236</v>
+      <c r="A57" t="s">
+        <v>51</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -1007,8 +1202,8 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>16237</v>
+      <c r="A58" t="s">
+        <v>52</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1018,8 +1213,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>16238</v>
+      <c r="A59" t="s">
+        <v>53</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -1029,8 +1224,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>16239</v>
+      <c r="A60" t="s">
+        <v>54</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -1040,8 +1235,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>16298</v>
+      <c r="A61" t="s">
+        <v>55</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -1051,8 +1246,8 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>16241</v>
+      <c r="A62" t="s">
+        <v>56</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -1062,8 +1257,8 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>16242</v>
+      <c r="A63" t="s">
+        <v>57</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -1073,8 +1268,8 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>16243</v>
+      <c r="A64" t="s">
+        <v>58</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -1084,8 +1279,8 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>16244</v>
+      <c r="A65" t="s">
+        <v>59</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -1095,8 +1290,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>16299</v>
+      <c r="A66" t="s">
+        <v>60</v>
       </c>
       <c r="B66">
         <v>30</v>
@@ -1115,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E1BA0D-05C9-4698-82B7-C399187D24DE}">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,1019 +1330,1019 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>10101</v>
-      </c>
-      <c r="B2">
-        <v>10107</v>
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>10102</v>
-      </c>
-      <c r="B3">
-        <v>10108</v>
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>10103</v>
-      </c>
-      <c r="B4">
-        <v>10109</v>
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>10102</v>
-      </c>
-      <c r="B5">
-        <v>10110</v>
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>10125</v>
-      </c>
-      <c r="B6">
-        <v>16201</v>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>10107</v>
-      </c>
-      <c r="B7">
-        <v>10129</v>
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10101</v>
-      </c>
-      <c r="B8">
-        <v>10116</v>
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>10109</v>
-      </c>
-      <c r="B9">
-        <v>10127</v>
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10107</v>
-      </c>
-      <c r="B10">
-        <v>10127</v>
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10107</v>
-      </c>
-      <c r="B11">
-        <v>10122</v>
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>10108</v>
-      </c>
-      <c r="B12">
-        <v>10122</v>
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10104</v>
-      </c>
-      <c r="B13">
-        <v>10128</v>
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>10126</v>
-      </c>
-      <c r="B14">
-        <v>10130</v>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>10127</v>
-      </c>
-      <c r="B15">
-        <v>16287</v>
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>10110</v>
-      </c>
-      <c r="B16">
-        <v>16204</v>
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>10108</v>
-      </c>
-      <c r="B17">
-        <v>16205</v>
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>10110</v>
-      </c>
-      <c r="B18">
-        <v>16205</v>
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>10104</v>
-      </c>
-      <c r="B19">
-        <v>16205</v>
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>16201</v>
-      </c>
-      <c r="B20">
-        <v>16205</v>
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>10127</v>
-      </c>
-      <c r="B21">
-        <v>16205</v>
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>10122</v>
-      </c>
-      <c r="B22">
-        <v>10124</v>
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>10110</v>
-      </c>
-      <c r="B23">
-        <v>10124</v>
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>10107</v>
-      </c>
-      <c r="B24">
-        <v>10115</v>
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>10130</v>
-      </c>
-      <c r="B25">
-        <v>10131</v>
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>10129</v>
-      </c>
-      <c r="B26">
-        <v>16207</v>
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>10116</v>
-      </c>
-      <c r="B27">
-        <v>16207</v>
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>10127</v>
-      </c>
-      <c r="B28">
-        <v>16207</v>
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>10122</v>
-      </c>
-      <c r="B29">
-        <v>16207</v>
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>10128</v>
-      </c>
-      <c r="B30">
-        <v>16207</v>
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>10130</v>
-      </c>
-      <c r="B31">
-        <v>16207</v>
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>10107</v>
-      </c>
-      <c r="B32">
-        <v>16208</v>
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>10108</v>
-      </c>
-      <c r="B33">
-        <v>16208</v>
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>10109</v>
-      </c>
-      <c r="B34">
-        <v>16208</v>
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>10110</v>
-      </c>
-      <c r="B35">
-        <v>16208</v>
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>10104</v>
-      </c>
-      <c r="B36">
-        <v>16208</v>
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>16201</v>
-      </c>
-      <c r="B37">
-        <v>16208</v>
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>16204</v>
-      </c>
-      <c r="B38">
-        <v>16208</v>
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>10116</v>
-      </c>
-      <c r="B39">
-        <v>16216</v>
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>10115</v>
-      </c>
-      <c r="B40">
-        <v>16216</v>
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>10107</v>
-      </c>
-      <c r="B41">
-        <v>16210</v>
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>10108</v>
-      </c>
-      <c r="B42">
-        <v>16210</v>
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>10109</v>
-      </c>
-      <c r="B43">
-        <v>16210</v>
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>10110</v>
-      </c>
-      <c r="B44">
-        <v>16210</v>
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>10104</v>
-      </c>
-      <c r="B45">
-        <v>16210</v>
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>16205</v>
-      </c>
-      <c r="B46">
-        <v>16288</v>
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>10321</v>
-      </c>
-      <c r="B47">
-        <v>10132</v>
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>16207</v>
-      </c>
-      <c r="B48">
-        <v>16289</v>
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>16208</v>
-      </c>
-      <c r="B49">
-        <v>16290</v>
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>16210</v>
-      </c>
-      <c r="B50">
-        <v>16214</v>
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>16210</v>
-      </c>
-      <c r="B51">
-        <v>16215</v>
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>16287</v>
-      </c>
-      <c r="B52">
-        <v>16291</v>
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>16204</v>
-      </c>
-      <c r="B53">
-        <v>16291</v>
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>16205</v>
-      </c>
-      <c r="B54">
-        <v>16291</v>
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>10124</v>
-      </c>
-      <c r="B55">
-        <v>16291</v>
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>10115</v>
-      </c>
-      <c r="B56">
-        <v>16291</v>
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>10131</v>
-      </c>
-      <c r="B57">
-        <v>16291</v>
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>10132</v>
-      </c>
-      <c r="B58">
-        <v>10133</v>
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>16289</v>
-      </c>
-      <c r="B59">
-        <v>16217</v>
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>16215</v>
-      </c>
-      <c r="B60">
-        <v>16217</v>
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>16289</v>
-      </c>
-      <c r="B61">
-        <v>16218</v>
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>16290</v>
-      </c>
-      <c r="B62">
-        <v>16218</v>
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>16207</v>
-      </c>
-      <c r="B63">
-        <v>16219</v>
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>16208</v>
-      </c>
-      <c r="B64">
-        <v>16219</v>
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>16216</v>
-      </c>
-      <c r="B65">
-        <v>16219</v>
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>16210</v>
-      </c>
-      <c r="B66">
-        <v>16219</v>
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>16288</v>
-      </c>
-      <c r="B67">
-        <v>16219</v>
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>10132</v>
-      </c>
-      <c r="B68">
-        <v>16219</v>
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>16215</v>
-      </c>
-      <c r="B69">
-        <v>16220</v>
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>16216</v>
-      </c>
-      <c r="B70">
-        <v>16292</v>
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>16207</v>
-      </c>
-      <c r="B71">
-        <v>16222</v>
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>16208</v>
-      </c>
-      <c r="B72">
-        <v>16222</v>
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>16216</v>
-      </c>
-      <c r="B73">
-        <v>16222</v>
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>16210</v>
-      </c>
-      <c r="B74">
-        <v>16222</v>
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>16288</v>
-      </c>
-      <c r="B75">
-        <v>16222</v>
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>10132</v>
-      </c>
-      <c r="B76">
-        <v>16222</v>
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>16217</v>
-      </c>
-      <c r="B77">
-        <v>16223</v>
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>16214</v>
-      </c>
-      <c r="B78">
-        <v>16224</v>
+      <c r="A78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>16219</v>
-      </c>
-      <c r="B79">
-        <v>16224</v>
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>16220</v>
-      </c>
-      <c r="B80">
-        <v>16224</v>
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>16288</v>
-      </c>
-      <c r="B81">
-        <v>16293</v>
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>16214</v>
-      </c>
-      <c r="B82">
-        <v>16293</v>
+      <c r="A82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>16291</v>
-      </c>
-      <c r="B83">
-        <v>16226</v>
+      <c r="A83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>16220</v>
-      </c>
-      <c r="B84">
-        <v>16226</v>
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>16292</v>
-      </c>
-      <c r="B85">
-        <v>16227</v>
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>16223</v>
-      </c>
-      <c r="B86">
-        <v>16228</v>
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>16224</v>
-      </c>
-      <c r="B87">
-        <v>16294</v>
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>16293</v>
-      </c>
-      <c r="B88">
-        <v>16295</v>
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>16226</v>
-      </c>
-      <c r="B89">
-        <v>16295</v>
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>16214</v>
-      </c>
-      <c r="B90">
-        <v>16296</v>
+      <c r="A90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>16226</v>
-      </c>
-      <c r="B91">
-        <v>16296</v>
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>16227</v>
-      </c>
-      <c r="B92">
-        <v>16232</v>
+      <c r="A92" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>16228</v>
-      </c>
-      <c r="B93">
-        <v>16233</v>
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>16294</v>
-      </c>
-      <c r="B94">
-        <v>16233</v>
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>16223</v>
-      </c>
-      <c r="B95">
-        <v>16297</v>
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>16294</v>
-      </c>
-      <c r="B96">
-        <v>16297</v>
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>16224</v>
-      </c>
-      <c r="B97">
-        <v>16235</v>
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>16295</v>
-      </c>
-      <c r="B98">
-        <v>16235</v>
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>16296</v>
-      </c>
-      <c r="B99">
-        <v>16236</v>
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>16232</v>
-      </c>
-      <c r="B100">
-        <v>16237</v>
+      <c r="A100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>16223</v>
-      </c>
-      <c r="B101">
-        <v>16238</v>
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>16224</v>
-      </c>
-      <c r="B102">
-        <v>16238</v>
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>16293</v>
-      </c>
-      <c r="B103">
-        <v>16238</v>
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>16226</v>
-      </c>
-      <c r="B104">
-        <v>16238</v>
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>16227</v>
-      </c>
-      <c r="B105">
-        <v>16238</v>
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>16222</v>
-      </c>
-      <c r="B106">
-        <v>16238</v>
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>16296</v>
-      </c>
-      <c r="B107">
-        <v>16239</v>
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>16233</v>
-      </c>
-      <c r="B108">
-        <v>16239</v>
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>16297</v>
-      </c>
-      <c r="B109">
-        <v>16239</v>
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>16233</v>
-      </c>
-      <c r="B110">
-        <v>16298</v>
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>16297</v>
-      </c>
-      <c r="B111">
-        <v>16298</v>
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>16235</v>
-      </c>
-      <c r="B112">
-        <v>16298</v>
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>16236</v>
-      </c>
-      <c r="B113">
-        <v>16298</v>
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+      <c r="B113" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>16237</v>
-      </c>
-      <c r="B114">
-        <v>16298</v>
+      <c r="A114" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>16238</v>
-      </c>
-      <c r="B115">
-        <v>16298</v>
+      <c r="A115" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>16235</v>
-      </c>
-      <c r="B116">
-        <v>16241</v>
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>16236</v>
-      </c>
-      <c r="B117">
-        <v>16241</v>
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>16295</v>
-      </c>
-      <c r="B118">
-        <v>16242</v>
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>16236</v>
-      </c>
-      <c r="B119">
-        <v>16242</v>
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>16237</v>
-      </c>
-      <c r="B120">
-        <v>16243</v>
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>16233</v>
-      </c>
-      <c r="B121">
-        <v>16244</v>
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>16297</v>
-      </c>
-      <c r="B122">
-        <v>16244</v>
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>16239</v>
-      </c>
-      <c r="B123">
-        <v>16299</v>
+      <c r="A123" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>16298</v>
-      </c>
-      <c r="B124">
-        <v>16299</v>
+      <c r="A124" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>16241</v>
-      </c>
-      <c r="B125">
-        <v>16299</v>
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>16242</v>
-      </c>
-      <c r="B126">
-        <v>16299</v>
+      <c r="A126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>16243</v>
-      </c>
-      <c r="B127">
-        <v>16299</v>
+      <c r="A127" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>16244</v>
-      </c>
-      <c r="B128">
-        <v>16299</v>
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
